--- a/test_data/Glop_Pot/asf/CATALOG_asf.xlsx
+++ b/test_data/Glop_Pot/asf/CATALOG_asf.xlsx
@@ -11,9 +11,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="1">
     <font>
